--- a/assets/Meta26_11_Excel.xlsx
+++ b/assets/Meta26_11_Excel.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Desktop\GeographieMA\Masterarbeit\data\Konfliktforschung\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75340E66-23F8-49CB-8BDF-F8E4D3BCD720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89294F70-3D0A-47C9-8902-31740B3FB659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9C0E0D41-C16B-4C51-A2D6-D5E990E9D09A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C0E0D41-C16B-4C51-A2D6-D5E990E9D09A}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata_26_11" sheetId="2" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">Metadata_26_11!$A$1:$O$49</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">Metadata_26_11!$A$1:$O$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="192">
   <si>
     <t>Column1</t>
   </si>
@@ -640,6 +640,18 @@
   </si>
   <si>
     <t>The UCDP Low estimate for battle-related deaths. In one Year</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS</t>
+  </si>
+  <si>
+    <t>Konflikt</t>
+  </si>
+  <si>
+    <t>Land mit Konflikt in den Jahren 2009-2019</t>
   </si>
 </sst>
 </file>
@@ -766,8 +778,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CFDA74BC-741B-47FC-8B0D-A69C2FA46FE7}" name="Metadata_26_11" displayName="Metadata_26_11" ref="A1:O49" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:O49" xr:uid="{CFDA74BC-741B-47FC-8B0D-A69C2FA46FE7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CFDA74BC-741B-47FC-8B0D-A69C2FA46FE7}" name="Metadata_26_11" displayName="Metadata_26_11" ref="A1:O51" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:O51" xr:uid="{CFDA74BC-741B-47FC-8B0D-A69C2FA46FE7}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{32BFB0E7-6B1E-4F7C-9904-1CABA5C0E623}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{167F9645-6EC2-4FBB-8A5C-8A49B674A242}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="13"/>
@@ -1086,26 +1098,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE7FD79-9D60-43D8-9689-9D2108D11064}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="81.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="81.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="52.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1199,7 +1211,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -1246,7 +1258,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1293,7 +1305,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -1340,7 +1352,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
@@ -1387,7 +1399,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
@@ -1434,7 +1446,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
@@ -1481,7 +1493,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
@@ -1528,7 +1540,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
@@ -1575,7 +1587,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>82</v>
       </c>
@@ -1622,7 +1634,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>86</v>
       </c>
@@ -1669,7 +1681,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>95</v>
       </c>
@@ -1716,7 +1728,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>98</v>
       </c>
@@ -1763,7 +1775,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>107</v>
       </c>
@@ -1810,7 +1822,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>113</v>
       </c>
@@ -1857,7 +1869,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>117</v>
       </c>
@@ -1904,7 +1916,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>121</v>
       </c>
@@ -1951,7 +1963,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>125</v>
       </c>
@@ -1974,7 +1986,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>128</v>
       </c>
@@ -1995,7 +2007,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>129</v>
       </c>
@@ -2016,7 +2028,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>130</v>
       </c>
@@ -2037,7 +2049,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>131</v>
       </c>
@@ -2058,7 +2070,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>132</v>
       </c>
@@ -2079,7 +2091,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>138</v>
       </c>
@@ -2100,7 +2112,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>140</v>
       </c>
@@ -2121,7 +2133,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>142</v>
       </c>
@@ -2142,7 +2154,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>144</v>
       </c>
@@ -2163,7 +2175,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>145</v>
       </c>
@@ -2184,7 +2196,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>148</v>
       </c>
@@ -2205,7 +2217,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>150</v>
       </c>
@@ -2226,7 +2238,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>152</v>
       </c>
@@ -2247,7 +2259,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>154</v>
       </c>
@@ -2268,7 +2280,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>156</v>
       </c>
@@ -2289,7 +2301,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>157</v>
       </c>
@@ -2310,7 +2322,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>158</v>
       </c>
@@ -2331,7 +2343,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>162</v>
       </c>
@@ -2352,7 +2364,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>163</v>
       </c>
@@ -2373,7 +2385,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>164</v>
       </c>
@@ -2394,7 +2406,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>165</v>
       </c>
@@ -2415,7 +2427,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>166</v>
       </c>
@@ -2436,7 +2448,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>167</v>
       </c>
@@ -2457,7 +2469,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>169</v>
       </c>
@@ -2478,7 +2490,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>170</v>
       </c>
@@ -2499,7 +2511,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>171</v>
       </c>
@@ -2520,7 +2532,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>168</v>
       </c>
@@ -2541,7 +2553,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>182</v>
       </c>
@@ -2562,7 +2574,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>184</v>
       </c>
@@ -2583,7 +2595,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>185</v>
       </c>
@@ -2603,6 +2615,48 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2618,7 +2672,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
